--- a/ELECTION(AutoRecovered).xlsx
+++ b/ELECTION(AutoRecovered).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatin\OneDrive\Desktop\Excel project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatin\OneDrive\Desktop\Excel project - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E1527A-D670-48F8-885F-10688B7802FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45099A3A-D150-4BBC-A34E-F0B6FB62F6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3995,8 +3995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M619"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6417,7 +6417,9 @@
       <c r="E94" s="7">
         <v>458398</v>
       </c>
-      <c r="F94" s="5"/>
+      <c r="F94" s="5">
+        <v>55245</v>
+      </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
